--- a/data/pca/factorExposure/factorExposure_2018-05-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-05-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01371179445471632</v>
+        <v>-0.02161775183167838</v>
       </c>
       <c r="C2">
-        <v>0.02576010032315161</v>
+        <v>0.01693602681555217</v>
       </c>
       <c r="D2">
-        <v>-0.001206815860370491</v>
+        <v>-0.02387639519756073</v>
       </c>
       <c r="E2">
-        <v>-0.02269876478234591</v>
+        <v>-0.01279133648636106</v>
       </c>
       <c r="F2">
-        <v>-0.1131634684127718</v>
+        <v>0.01039775489058131</v>
       </c>
       <c r="G2">
-        <v>-0.06816259110049813</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.05152734107848996</v>
+      </c>
+      <c r="H2">
+        <v>0.04750417257098758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.0862227540471952</v>
+        <v>-0.08840249547211401</v>
       </c>
       <c r="C3">
-        <v>0.008457617523772019</v>
+        <v>-0.01640238612069225</v>
       </c>
       <c r="D3">
-        <v>-0.05050186288618942</v>
+        <v>-0.04606642831028883</v>
       </c>
       <c r="E3">
-        <v>-0.09561554495368878</v>
+        <v>-0.005203956451670288</v>
       </c>
       <c r="F3">
-        <v>-0.4135481675964606</v>
+        <v>0.01026983617281935</v>
       </c>
       <c r="G3">
-        <v>-0.2204091613560814</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1815266520058506</v>
+      </c>
+      <c r="H3">
+        <v>0.1536338900161944</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0398955223348762</v>
+        <v>-0.05000875263666071</v>
       </c>
       <c r="C4">
-        <v>-0.0001337214524489217</v>
+        <v>0.00119238556203099</v>
       </c>
       <c r="D4">
-        <v>0.01212420846898343</v>
+        <v>-0.0519601772714804</v>
       </c>
       <c r="E4">
-        <v>0.04405687525851312</v>
+        <v>0.02209402692466458</v>
       </c>
       <c r="F4">
-        <v>-0.08447089195653253</v>
+        <v>0.05293237265416287</v>
       </c>
       <c r="G4">
-        <v>-0.04518794254858505</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03774818457987062</v>
+      </c>
+      <c r="H4">
+        <v>0.05851752693249997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02891913015002154</v>
+        <v>-0.03045069627552681</v>
       </c>
       <c r="C6">
-        <v>0.01188425219932447</v>
+        <v>-0.001294216128498967</v>
       </c>
       <c r="D6">
-        <v>-0.002702154536203735</v>
+        <v>-0.05633621812665768</v>
       </c>
       <c r="E6">
-        <v>0.02060495293829437</v>
+        <v>0.005646585568545585</v>
       </c>
       <c r="F6">
-        <v>-0.01482321746536084</v>
+        <v>0.03178973108689248</v>
       </c>
       <c r="G6">
-        <v>0.008493700833372119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01094602577332018</v>
+      </c>
+      <c r="H6">
+        <v>0.06161358703378562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01913470075467882</v>
+        <v>-0.02393188729933407</v>
       </c>
       <c r="C7">
-        <v>0.006648920950668345</v>
+        <v>0.0003833058970920541</v>
       </c>
       <c r="D7">
-        <v>-0.01187804338702644</v>
+        <v>-0.02923213871138891</v>
       </c>
       <c r="E7">
-        <v>0.02191176508911519</v>
+        <v>0.04429385221516379</v>
       </c>
       <c r="F7">
-        <v>-0.04889074024789659</v>
+        <v>0.00795916522529045</v>
       </c>
       <c r="G7">
-        <v>-0.06638873366188207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02104033376498436</v>
+      </c>
+      <c r="H7">
+        <v>0.03830866850114354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0148101609249152</v>
+        <v>-0.006019155363373876</v>
       </c>
       <c r="C8">
-        <v>0.009782377800505468</v>
+        <v>-0.002151380334006643</v>
       </c>
       <c r="D8">
-        <v>-0.004034748327670349</v>
+        <v>-0.01049653581391951</v>
       </c>
       <c r="E8">
-        <v>0.02887359646838283</v>
+        <v>0.007799989516252412</v>
       </c>
       <c r="F8">
-        <v>-0.09846099942819886</v>
+        <v>0.02098284171449671</v>
       </c>
       <c r="G8">
-        <v>-0.05367004553858032</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.04455507382637836</v>
+      </c>
+      <c r="H8">
+        <v>0.04182375525517681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03238180256298</v>
+        <v>-0.03925402861795558</v>
       </c>
       <c r="C9">
-        <v>0.008620414488977492</v>
+        <v>-0.001580853161095231</v>
       </c>
       <c r="D9">
-        <v>0.00307090011192618</v>
+        <v>-0.0384664044289027</v>
       </c>
       <c r="E9">
-        <v>0.03235025761741138</v>
+        <v>0.01137855643832249</v>
       </c>
       <c r="F9">
-        <v>-0.09589873451013121</v>
+        <v>0.02958119364559513</v>
       </c>
       <c r="G9">
-        <v>-0.05073428596518527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04667900127218316</v>
+      </c>
+      <c r="H9">
+        <v>0.05609611586563206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03940222980730979</v>
+        <v>-0.09288751050258114</v>
       </c>
       <c r="C10">
-        <v>-0.08360842548793333</v>
+        <v>-0.001275146559934879</v>
       </c>
       <c r="D10">
-        <v>0.06483640982624699</v>
+        <v>0.1722048706964576</v>
       </c>
       <c r="E10">
-        <v>-0.1216962826914897</v>
+        <v>-0.002815554493469473</v>
       </c>
       <c r="F10">
-        <v>-0.04472683551829557</v>
+        <v>-0.0330718003604883</v>
       </c>
       <c r="G10">
-        <v>0.005060910028401236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.03327952196903433</v>
+      </c>
+      <c r="H10">
+        <v>0.004686233002758918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03148694334991478</v>
+        <v>-0.02655892991442261</v>
       </c>
       <c r="C11">
-        <v>0.02876059495520983</v>
+        <v>-0.01294786920006835</v>
       </c>
       <c r="D11">
-        <v>-0.01173169013806197</v>
+        <v>-0.04404706112197201</v>
       </c>
       <c r="E11">
-        <v>0.02289388606554534</v>
+        <v>-0.0001607366450556838</v>
       </c>
       <c r="F11">
-        <v>-0.04466225746364236</v>
+        <v>0.01446337238344146</v>
       </c>
       <c r="G11">
-        <v>-0.02544343086005233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02652584113560555</v>
+      </c>
+      <c r="H11">
+        <v>0.04975908359116455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0393049404588257</v>
+        <v>-0.03026444215450716</v>
       </c>
       <c r="C12">
-        <v>0.02693903174526662</v>
+        <v>-0.009190986762188139</v>
       </c>
       <c r="D12">
-        <v>-0.004178478596890768</v>
+        <v>-0.04252526139855686</v>
       </c>
       <c r="E12">
-        <v>0.03397532852735623</v>
+        <v>0.009101814338881896</v>
       </c>
       <c r="F12">
-        <v>-0.02676712692023206</v>
+        <v>0.01666392985945768</v>
       </c>
       <c r="G12">
-        <v>-0.01296819635501765</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.008026926177389678</v>
+      </c>
+      <c r="H12">
+        <v>0.02277034057307397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01293978782305566</v>
+        <v>-0.03115438742190837</v>
       </c>
       <c r="C13">
-        <v>0.01831629441396494</v>
+        <v>0.01212925314625664</v>
       </c>
       <c r="D13">
-        <v>0.009095403150626055</v>
+        <v>-0.0144971769416519</v>
       </c>
       <c r="E13">
-        <v>-0.008203940747330532</v>
+        <v>-0.00885185250395472</v>
       </c>
       <c r="F13">
-        <v>-0.08394151053085976</v>
+        <v>0.02850921192762265</v>
       </c>
       <c r="G13">
-        <v>-0.04464167671224832</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.06159551812020767</v>
+      </c>
+      <c r="H13">
+        <v>0.07509956000487336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01364726515798309</v>
+        <v>-0.01916964200386011</v>
       </c>
       <c r="C14">
-        <v>-0.001221653097537775</v>
+        <v>4.187474379142884e-05</v>
       </c>
       <c r="D14">
-        <v>0.003411363166308583</v>
+        <v>-0.01006956349857379</v>
       </c>
       <c r="E14">
-        <v>0.02756034595871933</v>
+        <v>0.01481404523580469</v>
       </c>
       <c r="F14">
-        <v>-0.06324336569522852</v>
+        <v>0.01932700152120599</v>
       </c>
       <c r="G14">
-        <v>-0.05516574766802419</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04108399963463474</v>
+      </c>
+      <c r="H14">
+        <v>0.01293961006426361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02658923955369735</v>
+        <v>-0.02634398841957575</v>
       </c>
       <c r="C16">
-        <v>0.02956860363267982</v>
+        <v>-0.01195291069021665</v>
       </c>
       <c r="D16">
-        <v>-0.005035412063541197</v>
+        <v>-0.0357882503742355</v>
       </c>
       <c r="E16">
-        <v>0.01999049849778814</v>
+        <v>0.003729998568442003</v>
       </c>
       <c r="F16">
-        <v>-0.04830999595195123</v>
+        <v>0.01809191170810055</v>
       </c>
       <c r="G16">
-        <v>-0.02566467783868783</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02319234868843265</v>
+      </c>
+      <c r="H16">
+        <v>0.03737105195404649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03068802994376593</v>
+        <v>-0.03595835826847168</v>
       </c>
       <c r="C19">
-        <v>0.02329860895995938</v>
+        <v>-0.00135890568217108</v>
       </c>
       <c r="D19">
-        <v>-0.006477139915647492</v>
+        <v>-0.02886506214266485</v>
       </c>
       <c r="E19">
-        <v>0.01625736824239849</v>
+        <v>0.007184433305217032</v>
       </c>
       <c r="F19">
-        <v>-0.1036112906201294</v>
+        <v>0.03068861720689428</v>
       </c>
       <c r="G19">
-        <v>-0.06956765097734061</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.06120178289887689</v>
+      </c>
+      <c r="H19">
+        <v>0.06305872444487284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.004001462678504906</v>
+        <v>-0.01355413620763324</v>
       </c>
       <c r="C20">
-        <v>0.002903188483718416</v>
+        <v>0.004027190477671043</v>
       </c>
       <c r="D20">
-        <v>0.003401486332279333</v>
+        <v>-0.01801634602043246</v>
       </c>
       <c r="E20">
-        <v>0.01778294608675158</v>
+        <v>0.007308875157423973</v>
       </c>
       <c r="F20">
-        <v>-0.07755703619734051</v>
+        <v>0.02101159321002187</v>
       </c>
       <c r="G20">
-        <v>-0.07792112399173579</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05358717293921189</v>
+      </c>
+      <c r="H20">
+        <v>0.02833954815003548</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.003288176940896599</v>
+        <v>-0.01870979980724089</v>
       </c>
       <c r="C21">
-        <v>-0.01566725923428807</v>
+        <v>0.005487987634089697</v>
       </c>
       <c r="D21">
-        <v>-0.01734796584227637</v>
+        <v>-0.01874739319841212</v>
       </c>
       <c r="E21">
-        <v>0.03188052638858486</v>
+        <v>0.02100272365232395</v>
       </c>
       <c r="F21">
-        <v>-0.04533016008012634</v>
+        <v>0.0164758807563701</v>
       </c>
       <c r="G21">
-        <v>-0.0203204557874232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04860033029774127</v>
+      </c>
+      <c r="H21">
+        <v>0.04181035809916223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02754875732163502</v>
+        <v>-0.02259494620835376</v>
       </c>
       <c r="C24">
-        <v>0.02395042335733452</v>
+        <v>-0.006515357422026162</v>
       </c>
       <c r="D24">
-        <v>0.002640032520015943</v>
+        <v>-0.03862752549215683</v>
       </c>
       <c r="E24">
-        <v>0.009156754415942377</v>
+        <v>0.002297987940748599</v>
       </c>
       <c r="F24">
-        <v>-0.04496472081483695</v>
+        <v>0.01309866081933789</v>
       </c>
       <c r="G24">
-        <v>-0.02447242405013897</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01846204989962282</v>
+      </c>
+      <c r="H24">
+        <v>0.0467252436591502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02858009257709943</v>
+        <v>-0.03451839595526544</v>
       </c>
       <c r="C25">
-        <v>0.01891519688383135</v>
+        <v>-0.004471102382460466</v>
       </c>
       <c r="D25">
-        <v>-0.01137752605443548</v>
+        <v>-0.03833292459617019</v>
       </c>
       <c r="E25">
-        <v>0.02276184854129759</v>
+        <v>0.006186474283367232</v>
       </c>
       <c r="F25">
-        <v>-0.05204843802524814</v>
+        <v>0.02100806973800438</v>
       </c>
       <c r="G25">
-        <v>-0.01451849427218317</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02280803502587476</v>
+      </c>
+      <c r="H25">
+        <v>0.04321360162925096</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0201920793740273</v>
+        <v>-0.01812954907413422</v>
       </c>
       <c r="C26">
-        <v>0.01571043817605697</v>
+        <v>0.0179005328661719</v>
       </c>
       <c r="D26">
-        <v>-0.01814810068197322</v>
+        <v>-0.007971214255279482</v>
       </c>
       <c r="E26">
-        <v>-0.002718768395654394</v>
+        <v>0.0008147943351412124</v>
       </c>
       <c r="F26">
-        <v>-0.06489752263194198</v>
+        <v>0.004166173068516728</v>
       </c>
       <c r="G26">
-        <v>-0.04704567390753699</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.0335972156480702</v>
+      </c>
+      <c r="H26">
+        <v>0.02488054662502237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.05212261006011577</v>
+        <v>-0.02186131335302883</v>
       </c>
       <c r="C27">
-        <v>0.01788423226711602</v>
+        <v>-0.008051960943178385</v>
       </c>
       <c r="D27">
-        <v>0.02779741239545924</v>
+        <v>-0.01141503161747547</v>
       </c>
       <c r="E27">
-        <v>0.03393146699303471</v>
+        <v>0.003482530584960309</v>
       </c>
       <c r="F27">
-        <v>-0.04418799202059144</v>
+        <v>0.0142848864998731</v>
       </c>
       <c r="G27">
-        <v>-0.05520809511156243</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.008485631961378611</v>
+      </c>
+      <c r="H27">
+        <v>-0.004171797448303497</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06364323351589365</v>
+        <v>-0.1387957501966399</v>
       </c>
       <c r="C28">
-        <v>-0.1131042598418393</v>
+        <v>0.007902122118513648</v>
       </c>
       <c r="D28">
-        <v>0.09330682726577789</v>
+        <v>0.2294170865012622</v>
       </c>
       <c r="E28">
-        <v>-0.1524341445995246</v>
+        <v>0.003232438225398486</v>
       </c>
       <c r="F28">
-        <v>-0.04725285349397293</v>
+        <v>-0.0294934107732037</v>
       </c>
       <c r="G28">
-        <v>0.008751833237643227</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02178086700588231</v>
+      </c>
+      <c r="H28">
+        <v>-0.005109550903796852</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01881449922069212</v>
+        <v>-0.0236672880252837</v>
       </c>
       <c r="C29">
-        <v>-0.0003801455782226087</v>
+        <v>-0.001660094608887843</v>
       </c>
       <c r="D29">
-        <v>0.004324219154438932</v>
+        <v>-0.01043112138568764</v>
       </c>
       <c r="E29">
-        <v>0.03506125500359784</v>
+        <v>0.01523090164342306</v>
       </c>
       <c r="F29">
-        <v>-0.06111556638940619</v>
+        <v>0.02061139450436742</v>
       </c>
       <c r="G29">
-        <v>-0.04377195355342065</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03975062094732647</v>
+      </c>
+      <c r="H29">
+        <v>0.00443114157067126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.07902960251756222</v>
+        <v>-0.06032192045595564</v>
       </c>
       <c r="C30">
-        <v>0.05324501135486911</v>
+        <v>-0.002732781826532882</v>
       </c>
       <c r="D30">
-        <v>0.01059873104806752</v>
+        <v>-0.08376804402302623</v>
       </c>
       <c r="E30">
-        <v>0.04967710537663251</v>
+        <v>-0.02816402832384064</v>
       </c>
       <c r="F30">
-        <v>-0.1035608561460644</v>
+        <v>0.05489234264180169</v>
       </c>
       <c r="G30">
-        <v>-0.06725597697224515</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.06106959448131821</v>
+      </c>
+      <c r="H30">
+        <v>0.07998105388507239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05843199861458953</v>
+        <v>-0.05216125832104968</v>
       </c>
       <c r="C31">
-        <v>0.03038645452578813</v>
+        <v>-0.01181867566454097</v>
       </c>
       <c r="D31">
-        <v>-0.003368233914503629</v>
+        <v>-0.01914534163943053</v>
       </c>
       <c r="E31">
-        <v>0.007399414445584901</v>
+        <v>-0.003201611580969051</v>
       </c>
       <c r="F31">
-        <v>-0.05099171011426078</v>
+        <v>0.006400686059558304</v>
       </c>
       <c r="G31">
-        <v>-0.05172343518345172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01767511076135391</v>
+      </c>
+      <c r="H31">
+        <v>0.003792791675526862</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01657765994282012</v>
+        <v>-0.01221504440001298</v>
       </c>
       <c r="C32">
-        <v>0.01086665009919108</v>
+        <v>-0.01381730434839448</v>
       </c>
       <c r="D32">
-        <v>-0.006117300474112203</v>
+        <v>-0.008011547164762805</v>
       </c>
       <c r="E32">
-        <v>0.06195806332229138</v>
+        <v>0.03105015561794512</v>
       </c>
       <c r="F32">
-        <v>-0.07582326587323332</v>
+        <v>0.04290970832213929</v>
       </c>
       <c r="G32">
-        <v>-0.04582595221168584</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02544983458021707</v>
+      </c>
+      <c r="H32">
+        <v>0.05827857398230216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04103387699544407</v>
+        <v>-0.03962233701766725</v>
       </c>
       <c r="C33">
-        <v>0.03653398209537238</v>
+        <v>-0.002534554139121573</v>
       </c>
       <c r="D33">
-        <v>-0.02977375816181106</v>
+        <v>-0.03386911406600758</v>
       </c>
       <c r="E33">
-        <v>0.01800525633504175</v>
+        <v>-0.01921734226910272</v>
       </c>
       <c r="F33">
-        <v>-0.08461621372630346</v>
+        <v>0.004621428004805354</v>
       </c>
       <c r="G33">
-        <v>-0.0660938872874897</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.0503658904398986</v>
+      </c>
+      <c r="H33">
+        <v>0.05052431650168772</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02711340036468159</v>
+        <v>-0.03052427303918846</v>
       </c>
       <c r="C34">
-        <v>0.02397281343995098</v>
+        <v>-0.01994273487580201</v>
       </c>
       <c r="D34">
-        <v>-0.00614594675639938</v>
+        <v>-0.03568094910733521</v>
       </c>
       <c r="E34">
-        <v>0.02765558926443915</v>
+        <v>0.01173709133828124</v>
       </c>
       <c r="F34">
-        <v>-0.05428196879973404</v>
+        <v>0.01855022839049996</v>
       </c>
       <c r="G34">
-        <v>-0.01894153090740078</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01918653965821599</v>
+      </c>
+      <c r="H34">
+        <v>0.03695141086524451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01502441721317555</v>
+        <v>-0.01900198910172141</v>
       </c>
       <c r="C36">
-        <v>0.0009012789121526562</v>
+        <v>0.005649210838363142</v>
       </c>
       <c r="D36">
-        <v>-0.003476041439660448</v>
+        <v>-0.002274528350533402</v>
       </c>
       <c r="E36">
-        <v>0.02100758366051259</v>
+        <v>0.008638787639128571</v>
       </c>
       <c r="F36">
-        <v>-0.03831390552720235</v>
+        <v>0.005068103970718426</v>
       </c>
       <c r="G36">
-        <v>-0.03549020379871352</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02135570380201627</v>
+      </c>
+      <c r="H36">
+        <v>0.01639814443367009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.002207693451297608</v>
+        <v>-0.02818423946050312</v>
       </c>
       <c r="C38">
-        <v>-0.005683738424735628</v>
+        <v>-0.01670099206543925</v>
       </c>
       <c r="D38">
-        <v>-0.01523768201075491</v>
+        <v>-0.007934031554395123</v>
       </c>
       <c r="E38">
-        <v>-0.03029943199942231</v>
+        <v>0.0006700737183189518</v>
       </c>
       <c r="F38">
-        <v>-0.03581720524001807</v>
+        <v>0.01228530282870597</v>
       </c>
       <c r="G38">
-        <v>-0.01320605748929196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02445291561966103</v>
+      </c>
+      <c r="H38">
+        <v>0.04526994023104138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.028932558061835</v>
+        <v>-0.0256841168349794</v>
       </c>
       <c r="C39">
-        <v>0.04538841865971855</v>
+        <v>-0.01040797271605777</v>
       </c>
       <c r="D39">
-        <v>-0.008103273928865411</v>
+        <v>-0.08430509585598846</v>
       </c>
       <c r="E39">
-        <v>0.02523628694793995</v>
+        <v>-0.002684522550103302</v>
       </c>
       <c r="F39">
-        <v>-0.06542869893893716</v>
+        <v>0.02438677784770103</v>
       </c>
       <c r="G39">
-        <v>-0.0315010443341471</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.03957029363858517</v>
+      </c>
+      <c r="H39">
+        <v>0.07802507227865534</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03124870029539099</v>
+        <v>-0.03380517787341571</v>
       </c>
       <c r="C40">
-        <v>0.06608333227506048</v>
+        <v>-0.002724892061616672</v>
       </c>
       <c r="D40">
-        <v>0.02478629838574459</v>
+        <v>-0.02685301268684867</v>
       </c>
       <c r="E40">
-        <v>-0.009930480392599158</v>
+        <v>-0.02268908737146154</v>
       </c>
       <c r="F40">
-        <v>-0.08336407521106257</v>
+        <v>0.03785491980072104</v>
       </c>
       <c r="G40">
-        <v>-0.05545893147256106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02096540836248552</v>
+      </c>
+      <c r="H40">
+        <v>0.06670586804951671</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0009181630158133073</v>
+        <v>-0.009638394120134184</v>
       </c>
       <c r="C41">
-        <v>-0.002449336085190295</v>
+        <v>0.003361076930380722</v>
       </c>
       <c r="D41">
-        <v>-0.007512327926998719</v>
+        <v>0.01577623558328197</v>
       </c>
       <c r="E41">
-        <v>0.0002245900301035759</v>
+        <v>-0.001122372564678429</v>
       </c>
       <c r="F41">
-        <v>-0.01785034745798247</v>
+        <v>-0.002812821980703718</v>
       </c>
       <c r="G41">
-        <v>-0.04774735593530489</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.005418223291788091</v>
+      </c>
+      <c r="H41">
+        <v>-0.005273885361171188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3565496842202372</v>
+        <v>-0.1889612081773364</v>
       </c>
       <c r="C42">
-        <v>-0.06257675114572452</v>
+        <v>0.05898355965384527</v>
       </c>
       <c r="D42">
-        <v>-0.7757986172884305</v>
+        <v>-0.2461309301060476</v>
       </c>
       <c r="E42">
-        <v>-0.3610746451440083</v>
+        <v>-0.2003965868677784</v>
       </c>
       <c r="F42">
-        <v>0.2765827263693054</v>
+        <v>-0.9123185201750954</v>
       </c>
       <c r="G42">
-        <v>-0.1477367581562651</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.09073930528559765</v>
+      </c>
+      <c r="H42">
+        <v>0.007449580080651804</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>4.000194427639454e-05</v>
+        <v>-0.01387069754133805</v>
       </c>
       <c r="C43">
-        <v>-0.002896355693500288</v>
+        <v>0.003275745725585722</v>
       </c>
       <c r="D43">
-        <v>-0.01042126005187331</v>
+        <v>0.01586257060700317</v>
       </c>
       <c r="E43">
-        <v>-3.129534252865472e-05</v>
+        <v>-0.004301775915794963</v>
       </c>
       <c r="F43">
-        <v>-0.03408647439521129</v>
+        <v>-0.004854065433517725</v>
       </c>
       <c r="G43">
-        <v>-0.04427780111166666</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.00713633870140159</v>
+      </c>
+      <c r="H43">
+        <v>0.00910049022705315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01463506703378966</v>
+        <v>-0.02292180289007242</v>
       </c>
       <c r="C44">
-        <v>-0.0005083563365841846</v>
+        <v>-0.006303609438396289</v>
       </c>
       <c r="D44">
-        <v>-0.008183636197316317</v>
+        <v>-0.02958018842542598</v>
       </c>
       <c r="E44">
-        <v>-0.008526483204919047</v>
+        <v>0.008686900463202328</v>
       </c>
       <c r="F44">
-        <v>-0.1078811520698217</v>
+        <v>0.006459298075882466</v>
       </c>
       <c r="G44">
-        <v>-0.08578575777136326</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04516179462745482</v>
+      </c>
+      <c r="H44">
+        <v>0.06563716646961455</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02003959604472591</v>
+        <v>-0.0173711652554691</v>
       </c>
       <c r="C46">
-        <v>0.0186400947450089</v>
+        <v>0.004093493990640262</v>
       </c>
       <c r="D46">
-        <v>-0.01339687379639648</v>
+        <v>-0.01191607479903126</v>
       </c>
       <c r="E46">
-        <v>0.03203404389500971</v>
+        <v>0.0008750106628652521</v>
       </c>
       <c r="F46">
-        <v>-0.07408247725354557</v>
+        <v>0.01583769235129713</v>
       </c>
       <c r="G46">
-        <v>-0.05878619892191041</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04573804193553641</v>
+      </c>
+      <c r="H46">
+        <v>0.007428213175023263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09181804280467021</v>
+        <v>-0.07643060899138727</v>
       </c>
       <c r="C47">
-        <v>0.03321832516262446</v>
+        <v>-0.02914782597288218</v>
       </c>
       <c r="D47">
-        <v>0.005595664057431975</v>
+        <v>-0.04187324141746616</v>
       </c>
       <c r="E47">
-        <v>0.02665438649380803</v>
+        <v>0.0008200083003423158</v>
       </c>
       <c r="F47">
-        <v>-0.03691052886634971</v>
+        <v>0.01409932822180314</v>
       </c>
       <c r="G47">
-        <v>-0.07985832487784858</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.008825867622366954</v>
+      </c>
+      <c r="H47">
+        <v>-0.02200749048149324</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01779243316479424</v>
+        <v>-0.02180611425767885</v>
       </c>
       <c r="C48">
-        <v>0.009601566378440759</v>
+        <v>-0.005819481121831287</v>
       </c>
       <c r="D48">
-        <v>-0.007780887443948097</v>
+        <v>-0.008566390836461706</v>
       </c>
       <c r="E48">
-        <v>0.02062769141604624</v>
+        <v>0.001303236171941499</v>
       </c>
       <c r="F48">
-        <v>-0.04441092995132732</v>
+        <v>0.009864057621626898</v>
       </c>
       <c r="G48">
-        <v>-0.02718989785274143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02532732446088698</v>
+      </c>
+      <c r="H48">
+        <v>0.01871465757528865</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0845908100875971</v>
+        <v>-0.07402825350189436</v>
       </c>
       <c r="C50">
-        <v>0.03086297983441087</v>
+        <v>-0.0260740494256028</v>
       </c>
       <c r="D50">
-        <v>-0.009692561870646932</v>
+        <v>-0.03985843138244877</v>
       </c>
       <c r="E50">
-        <v>0.02971841543559745</v>
+        <v>0.01521411198937205</v>
       </c>
       <c r="F50">
-        <v>-0.05102805258068995</v>
+        <v>0.01026623270527222</v>
       </c>
       <c r="G50">
-        <v>-0.0409283009255894</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.007808768672734512</v>
+      </c>
+      <c r="H50">
+        <v>-0.005672200078187607</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01514099756467362</v>
+        <v>-0.02261373088287565</v>
       </c>
       <c r="C51">
-        <v>-0.009393059775667479</v>
+        <v>0.0004830752281902529</v>
       </c>
       <c r="D51">
-        <v>0.005026458786271603</v>
+        <v>-0.001556930968714293</v>
       </c>
       <c r="E51">
-        <v>-0.01841859988972726</v>
+        <v>0.005873258465416481</v>
       </c>
       <c r="F51">
-        <v>-0.09246846568438857</v>
+        <v>0.00676852995282566</v>
       </c>
       <c r="G51">
-        <v>-0.05745986550214385</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04381332479906195</v>
+      </c>
+      <c r="H51">
+        <v>0.05093638435028082</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1019739265321341</v>
+        <v>-0.09600835023114462</v>
       </c>
       <c r="C53">
-        <v>0.04524071917096494</v>
+        <v>-0.03813244863886404</v>
       </c>
       <c r="D53">
-        <v>0.006702726742883385</v>
+        <v>-0.0751211472027601</v>
       </c>
       <c r="E53">
-        <v>0.04782960719858966</v>
+        <v>0.003065214988197148</v>
       </c>
       <c r="F53">
-        <v>0.02232943620862674</v>
+        <v>0.02887859852685207</v>
       </c>
       <c r="G53">
-        <v>-0.01709767176765723</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04296368815849729</v>
+      </c>
+      <c r="H53">
+        <v>-0.03413096858801042</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0184909456330914</v>
+        <v>-0.02549453835307352</v>
       </c>
       <c r="C54">
-        <v>-0.001614894308114353</v>
+        <v>-0.008477296650471814</v>
       </c>
       <c r="D54">
-        <v>0.004365912917375456</v>
+        <v>0.01034994765206696</v>
       </c>
       <c r="E54">
-        <v>0.03640636482022534</v>
+        <v>0.009492447696708655</v>
       </c>
       <c r="F54">
-        <v>-0.060381321567542</v>
+        <v>0.01280137489923438</v>
       </c>
       <c r="G54">
-        <v>-0.06052865691070342</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.04033647003795586</v>
+      </c>
+      <c r="H54">
+        <v>0.001078617591220539</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1005660770924258</v>
+        <v>-0.0798519577058984</v>
       </c>
       <c r="C55">
-        <v>0.02589451609044333</v>
+        <v>-0.03391686558082693</v>
       </c>
       <c r="D55">
-        <v>-0.002134688147079681</v>
+        <v>-0.07190086967688625</v>
       </c>
       <c r="E55">
-        <v>0.06527810642561971</v>
+        <v>0.01225110943082823</v>
       </c>
       <c r="F55">
-        <v>0.01316274313597293</v>
+        <v>0.0209804826724304</v>
       </c>
       <c r="G55">
-        <v>-0.05610431898730062</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01789098055425339</v>
+      </c>
+      <c r="H55">
+        <v>-0.04387591320263963</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.143466249575064</v>
+        <v>-0.1309309165132935</v>
       </c>
       <c r="C56">
-        <v>0.06213386117634667</v>
+        <v>-0.05639108524322804</v>
       </c>
       <c r="D56">
-        <v>0.04278046445812614</v>
+        <v>-0.09044925845772003</v>
       </c>
       <c r="E56">
-        <v>0.07580875057738162</v>
+        <v>0.001366093022044008</v>
       </c>
       <c r="F56">
-        <v>0.0591107259056408</v>
+        <v>0.0496329216680765</v>
       </c>
       <c r="G56">
-        <v>0.02746396861706204</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.07924721731667925</v>
+      </c>
+      <c r="H56">
+        <v>-0.05769913920053889</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04329588836458379</v>
+        <v>-0.03943179582197227</v>
       </c>
       <c r="C57">
-        <v>0.0144476998875046</v>
+        <v>0.01102319822744094</v>
       </c>
       <c r="D57">
-        <v>-0.01419867611259321</v>
+        <v>-0.02892465362476577</v>
       </c>
       <c r="E57">
-        <v>-0.01523321655548348</v>
+        <v>-0.006298674738074169</v>
       </c>
       <c r="F57">
-        <v>-0.05222390149945522</v>
+        <v>0.01214202177210522</v>
       </c>
       <c r="G57">
-        <v>-0.06005357317717955</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.07553232669617957</v>
+      </c>
+      <c r="H57">
+        <v>0.04893209965235789</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2046902467923049</v>
+        <v>-0.1576575710713487</v>
       </c>
       <c r="C58">
-        <v>0.1322350548789531</v>
+        <v>-0.05270239522585191</v>
       </c>
       <c r="D58">
-        <v>-0.06604703544431435</v>
+        <v>-0.1465718834771911</v>
       </c>
       <c r="E58">
-        <v>0.06485267858376161</v>
+        <v>-0.1701206122323943</v>
       </c>
       <c r="F58">
-        <v>-0.4174119461940952</v>
+        <v>0.01138432706190143</v>
       </c>
       <c r="G58">
-        <v>-0.035835940892738</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.8146994163524919</v>
+      </c>
+      <c r="H58">
+        <v>-0.3999411013533117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05736637732364742</v>
+        <v>-0.1520604506402383</v>
       </c>
       <c r="C59">
-        <v>-0.06412505935266304</v>
+        <v>-0.0008359170476669385</v>
       </c>
       <c r="D59">
-        <v>0.1088241754764607</v>
+        <v>0.2310961278233833</v>
       </c>
       <c r="E59">
-        <v>-0.1461969293045415</v>
+        <v>-0.01570223112251424</v>
       </c>
       <c r="F59">
-        <v>-0.06048523438450136</v>
+        <v>-0.004484590045691199</v>
       </c>
       <c r="G59">
-        <v>0.02634285917543266</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.02281907977627177</v>
+      </c>
+      <c r="H59">
+        <v>0.02946242812487464</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1533264783891028</v>
+        <v>-0.1868348665758515</v>
       </c>
       <c r="C60">
-        <v>0.09343563376498819</v>
+        <v>-0.02897940412167416</v>
       </c>
       <c r="D60">
-        <v>-0.005451740150633291</v>
+        <v>-0.01771392185415942</v>
       </c>
       <c r="E60">
-        <v>-0.1066779062260717</v>
+        <v>-0.04858410922466518</v>
       </c>
       <c r="F60">
-        <v>-0.1663559903537677</v>
+        <v>0.05643653113768528</v>
       </c>
       <c r="G60">
-        <v>0.2980170061906349</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.02481919890958141</v>
+      </c>
+      <c r="H60">
+        <v>0.369808519268482</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02045695985523705</v>
+        <v>-0.02801167681269991</v>
       </c>
       <c r="C61">
-        <v>0.02457288336360877</v>
+        <v>-0.01222743856184185</v>
       </c>
       <c r="D61">
-        <v>-0.009694689304903498</v>
+        <v>-0.05113602937968694</v>
       </c>
       <c r="E61">
-        <v>0.01665552595237966</v>
+        <v>0.004690237965840467</v>
       </c>
       <c r="F61">
-        <v>-0.029272892535466</v>
+        <v>0.02474311144639049</v>
       </c>
       <c r="G61">
-        <v>-0.015983572414976</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02092112365328727</v>
+      </c>
+      <c r="H61">
+        <v>0.05790644654360057</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.009164279758079491</v>
+        <v>-0.01457263297814448</v>
       </c>
       <c r="C63">
-        <v>0.01584100781153979</v>
+        <v>0.0008359534389388996</v>
       </c>
       <c r="D63">
-        <v>-0.01691102874110644</v>
+        <v>-0.01968840249925111</v>
       </c>
       <c r="E63">
-        <v>0.02305138529356969</v>
+        <v>0.005976193247854787</v>
       </c>
       <c r="F63">
-        <v>-0.01714511272876516</v>
+        <v>0.01297960431571088</v>
       </c>
       <c r="G63">
-        <v>-0.07231342838717761</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.0174260789284122</v>
+      </c>
+      <c r="H63">
+        <v>0.01274029707011043</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03542568708508376</v>
+        <v>-0.04366083067003321</v>
       </c>
       <c r="C64">
-        <v>-0.0009795653131681058</v>
+        <v>-0.01144599954354529</v>
       </c>
       <c r="D64">
-        <v>0.00119909767398463</v>
+        <v>-0.03439374195651741</v>
       </c>
       <c r="E64">
-        <v>0.05111902679254344</v>
+        <v>0.01223671197874531</v>
       </c>
       <c r="F64">
-        <v>-0.04162019592144517</v>
+        <v>0.006257721840275781</v>
       </c>
       <c r="G64">
-        <v>-0.05408133427910802</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.005094422524050428</v>
+      </c>
+      <c r="H64">
+        <v>0.04212353903756344</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03182187473496462</v>
+        <v>-0.03972292866845407</v>
       </c>
       <c r="C65">
-        <v>0.01374425509436354</v>
+        <v>-0.00325489298719195</v>
       </c>
       <c r="D65">
-        <v>-0.00290927594135245</v>
+        <v>-0.06740545673245954</v>
       </c>
       <c r="E65">
-        <v>0.02257236892063375</v>
+        <v>0.00902387734878787</v>
       </c>
       <c r="F65">
-        <v>-0.0100817953681916</v>
+        <v>0.03718430833471254</v>
       </c>
       <c r="G65">
-        <v>0.01484733379776758</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.002024055300755189</v>
+      </c>
+      <c r="H65">
+        <v>0.0714927773538396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03140323425896219</v>
+        <v>-0.03634085722314336</v>
       </c>
       <c r="C66">
-        <v>0.05762172043201817</v>
+        <v>-0.01809973336406743</v>
       </c>
       <c r="D66">
-        <v>-0.008042796479656472</v>
+        <v>-0.1037567304465207</v>
       </c>
       <c r="E66">
-        <v>0.03553007804523568</v>
+        <v>-0.004560927824307053</v>
       </c>
       <c r="F66">
-        <v>-0.04916142671925561</v>
+        <v>0.04462727008760109</v>
       </c>
       <c r="G66">
-        <v>-0.01544798376846379</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03347474000400948</v>
+      </c>
+      <c r="H66">
+        <v>0.08279536692793241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0119295790148089</v>
+        <v>-0.0476154994399462</v>
       </c>
       <c r="C67">
-        <v>0.001175391091211455</v>
+        <v>-0.01853334008255713</v>
       </c>
       <c r="D67">
-        <v>-0.007773493497956732</v>
+        <v>-0.007561465149646049</v>
       </c>
       <c r="E67">
-        <v>-0.03427597074680433</v>
+        <v>-0.003106822712541944</v>
       </c>
       <c r="F67">
-        <v>-0.01691831841557563</v>
+        <v>0.02032529275028819</v>
       </c>
       <c r="G67">
-        <v>-0.004248188974653453</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01149211659927457</v>
+      </c>
+      <c r="H67">
+        <v>0.04564636520898004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07585216436916462</v>
+        <v>-0.1436989684138009</v>
       </c>
       <c r="C68">
-        <v>-0.09050186774231452</v>
+        <v>0.02302147008288194</v>
       </c>
       <c r="D68">
-        <v>0.118759448066644</v>
+        <v>0.2412388940083086</v>
       </c>
       <c r="E68">
-        <v>-0.1442456670645224</v>
+        <v>-0.01074968985701342</v>
       </c>
       <c r="F68">
-        <v>-0.05439615148242131</v>
+        <v>-0.03802169295667126</v>
       </c>
       <c r="G68">
-        <v>0.07056779653663336</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03141146012774595</v>
+      </c>
+      <c r="H68">
+        <v>-0.04711730364688123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0675761320840589</v>
+        <v>-0.06328219621720518</v>
       </c>
       <c r="C69">
-        <v>0.04152339029956739</v>
+        <v>-0.02963115861236393</v>
       </c>
       <c r="D69">
-        <v>0.01289980820830629</v>
+        <v>-0.04068725502666994</v>
       </c>
       <c r="E69">
-        <v>0.01743072672057963</v>
+        <v>0.0001353460440709</v>
       </c>
       <c r="F69">
-        <v>-0.02146427390841835</v>
+        <v>0.02541076521215256</v>
       </c>
       <c r="G69">
-        <v>-0.07707829470268593</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01434598525192278</v>
+      </c>
+      <c r="H69">
+        <v>0.007810382395055463</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07795542733790843</v>
+        <v>-0.1391524141711596</v>
       </c>
       <c r="C71">
-        <v>-0.09353464163715731</v>
+        <v>0.009804313846707742</v>
       </c>
       <c r="D71">
-        <v>0.1046782463294715</v>
+        <v>0.208345721904237</v>
       </c>
       <c r="E71">
-        <v>-0.2039641638263565</v>
+        <v>-0.01646764666156552</v>
       </c>
       <c r="F71">
-        <v>-0.04586827865227331</v>
+        <v>-0.0443794228013357</v>
       </c>
       <c r="G71">
-        <v>0.00513127966681106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.03624429184299596</v>
+      </c>
+      <c r="H71">
+        <v>-0.02021961879973437</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1054254068823644</v>
+        <v>-0.08200992533508751</v>
       </c>
       <c r="C72">
-        <v>0.07333886597602793</v>
+        <v>-0.04046920416341722</v>
       </c>
       <c r="D72">
-        <v>0.04404070783302105</v>
+        <v>-0.06912404588417767</v>
       </c>
       <c r="E72">
-        <v>0.0364405541393523</v>
+        <v>-0.01293974919229777</v>
       </c>
       <c r="F72">
-        <v>-0.09111758772699752</v>
+        <v>0.07609321683118987</v>
       </c>
       <c r="G72">
-        <v>0.09225053106607703</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.0211471229045612</v>
+      </c>
+      <c r="H72">
+        <v>0.1326013532355675</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2229456676646089</v>
+        <v>-0.2579132378713506</v>
       </c>
       <c r="C73">
-        <v>0.1321094472274932</v>
+        <v>-0.04466689278085012</v>
       </c>
       <c r="D73">
-        <v>-0.01324751815842775</v>
+        <v>-0.07697953856425759</v>
       </c>
       <c r="E73">
-        <v>-0.1901288354834398</v>
+        <v>-0.08558395615476817</v>
       </c>
       <c r="F73">
-        <v>-0.1935290096955745</v>
+        <v>0.06750698396239714</v>
       </c>
       <c r="G73">
-        <v>0.4197146529926136</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.0313241246486444</v>
+      </c>
+      <c r="H73">
+        <v>0.4769066324549344</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1354534751981535</v>
+        <v>-0.1251479079330203</v>
       </c>
       <c r="C74">
-        <v>0.03683190275896819</v>
+        <v>-0.05505823904289732</v>
       </c>
       <c r="D74">
-        <v>0.01346499277603989</v>
+        <v>-0.09708292027066216</v>
       </c>
       <c r="E74">
-        <v>0.04596148606732676</v>
+        <v>0.00466650135033156</v>
       </c>
       <c r="F74">
-        <v>0.0752909026444068</v>
+        <v>0.03299775006511736</v>
       </c>
       <c r="G74">
-        <v>0.005914019259252379</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.06376508633175824</v>
+      </c>
+      <c r="H74">
+        <v>-0.02551209964520522</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.227113522573807</v>
+        <v>-0.2363661764284916</v>
       </c>
       <c r="C75">
-        <v>0.09668573905942442</v>
+        <v>-0.1017234118654934</v>
       </c>
       <c r="D75">
-        <v>0.09131099766346229</v>
+        <v>-0.1454425810142826</v>
       </c>
       <c r="E75">
-        <v>0.1075465692500735</v>
+        <v>-0.01267679158126403</v>
       </c>
       <c r="F75">
-        <v>0.07863002949026762</v>
+        <v>0.09398768473810686</v>
       </c>
       <c r="G75">
-        <v>-0.005540693481727262</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1364375909575898</v>
+      </c>
+      <c r="H75">
+        <v>-0.1316794972191915</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.278011775591726</v>
+        <v>-0.2070770383724688</v>
       </c>
       <c r="C76">
-        <v>0.09383977755960859</v>
+        <v>-0.0949318415140569</v>
       </c>
       <c r="D76">
-        <v>0.1195187571424821</v>
+        <v>-0.1413409543367652</v>
       </c>
       <c r="E76">
-        <v>0.1593361973525425</v>
+        <v>0.03241280823015307</v>
       </c>
       <c r="F76">
-        <v>0.159799964970407</v>
+        <v>0.08882772962148522</v>
       </c>
       <c r="G76">
-        <v>0.007534955356302632</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1373672971020794</v>
+      </c>
+      <c r="H76">
+        <v>-0.129399374469599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1201120924727551</v>
+        <v>-0.07727560162810521</v>
       </c>
       <c r="C77">
-        <v>0.05102617189409962</v>
+        <v>-0.01491730715540392</v>
       </c>
       <c r="D77">
-        <v>-0.07349452467079891</v>
+        <v>-0.06825700924219101</v>
       </c>
       <c r="E77">
-        <v>0.02930050886593842</v>
+        <v>-0.007759704786983988</v>
       </c>
       <c r="F77">
-        <v>-0.1867924967195808</v>
+        <v>-0.004292464284156853</v>
       </c>
       <c r="G77">
-        <v>-0.2070669330469139</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.09037960098685897</v>
+      </c>
+      <c r="H77">
+        <v>0.0149707327878734</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07085968502127174</v>
+        <v>-0.04657487190650617</v>
       </c>
       <c r="C78">
-        <v>0.04819797558312788</v>
+        <v>-0.01552665064253988</v>
       </c>
       <c r="D78">
-        <v>-0.03830542670564716</v>
+        <v>-0.05904152999550957</v>
       </c>
       <c r="E78">
-        <v>0.06731330325598135</v>
+        <v>0.005381545494783554</v>
       </c>
       <c r="F78">
-        <v>-0.1141625704215477</v>
+        <v>0.02848368536743866</v>
       </c>
       <c r="G78">
-        <v>-0.03206507739047753</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.06701889087981069</v>
+      </c>
+      <c r="H78">
+        <v>0.08642563867583328</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2496570452818604</v>
+        <v>-0.1431153310656351</v>
       </c>
       <c r="C80">
-        <v>-0.8300081199656523</v>
+        <v>-0.03448972428468285</v>
       </c>
       <c r="D80">
-        <v>-0.09249120674406569</v>
+        <v>-0.05369985604607352</v>
       </c>
       <c r="E80">
-        <v>0.422265234640769</v>
+        <v>0.9471305688763899</v>
       </c>
       <c r="F80">
-        <v>-0.1016585782223967</v>
+        <v>-0.1864214969802299</v>
       </c>
       <c r="G80">
-        <v>0.136502476275471</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.127841237380325</v>
+      </c>
+      <c r="H80">
+        <v>-0.001608047656956188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.174066884391453</v>
+        <v>-0.1600767751979071</v>
       </c>
       <c r="C81">
-        <v>0.065242787549425</v>
+        <v>-0.06720192525267007</v>
       </c>
       <c r="D81">
-        <v>0.08342933645481454</v>
+        <v>-0.09297232149429908</v>
       </c>
       <c r="E81">
-        <v>0.09251399536221243</v>
+        <v>0.007582306396509451</v>
       </c>
       <c r="F81">
-        <v>0.1031632915143611</v>
+        <v>0.06341264875127559</v>
       </c>
       <c r="G81">
-        <v>0.03020532653779986</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.09461794680319242</v>
+      </c>
+      <c r="H81">
+        <v>-0.08653778444058235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03530531438871382</v>
+        <v>-0.03501065362782021</v>
       </c>
       <c r="C83">
-        <v>0.03066672558851322</v>
+        <v>-0.006730370751433496</v>
       </c>
       <c r="D83">
-        <v>-0.0208432714762087</v>
+        <v>-0.0216677290397514</v>
       </c>
       <c r="E83">
-        <v>-0.002165564898850318</v>
+        <v>-0.005327074017781036</v>
       </c>
       <c r="F83">
-        <v>-0.05998888971529953</v>
+        <v>0.01204508794164848</v>
       </c>
       <c r="G83">
-        <v>-0.04262538933649927</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05108351745746743</v>
+      </c>
+      <c r="H83">
+        <v>0.04173292386012108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2548307209325994</v>
+        <v>-0.2259849004833962</v>
       </c>
       <c r="C85">
-        <v>0.0953673162343036</v>
+        <v>-0.08657210728774549</v>
       </c>
       <c r="D85">
-        <v>0.09268557525557629</v>
+        <v>-0.1509198953938971</v>
       </c>
       <c r="E85">
-        <v>0.1228493748518512</v>
+        <v>-0.006402515139722604</v>
       </c>
       <c r="F85">
-        <v>0.1013844967279974</v>
+        <v>0.07806893500991888</v>
       </c>
       <c r="G85">
-        <v>-0.03418880324202512</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1490869076653416</v>
+      </c>
+      <c r="H85">
+        <v>-0.0914371261464733</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0004141043773753774</v>
+        <v>-0.02956396531489062</v>
       </c>
       <c r="C86">
-        <v>-0.003765644622246159</v>
+        <v>-0.004053448997708364</v>
       </c>
       <c r="D86">
-        <v>-0.02660872327775388</v>
+        <v>-0.02717120340017306</v>
       </c>
       <c r="E86">
-        <v>0.02402104910229521</v>
+        <v>-0.002839058917550367</v>
       </c>
       <c r="F86">
-        <v>-0.07515437256153074</v>
+        <v>0.001157784805317234</v>
       </c>
       <c r="G86">
-        <v>-0.04251479375397914</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.08130619004812541</v>
+      </c>
+      <c r="H86">
+        <v>0.09750204534303475</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03914612778398557</v>
+        <v>-0.03020193823553773</v>
       </c>
       <c r="C87">
-        <v>-0.002348296846843328</v>
+        <v>-0.005293384994717331</v>
       </c>
       <c r="D87">
-        <v>-0.01983382179666899</v>
+        <v>-0.04206410427344923</v>
       </c>
       <c r="E87">
-        <v>0.007977875158663215</v>
+        <v>0.009820776503899583</v>
       </c>
       <c r="F87">
-        <v>-0.1118199386027014</v>
+        <v>0.01380321850193124</v>
       </c>
       <c r="G87">
-        <v>-0.04796080692348172</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08332700617703677</v>
+      </c>
+      <c r="H87">
+        <v>0.08084646160554682</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01151313981941213</v>
+        <v>-0.04051136144467301</v>
       </c>
       <c r="C88">
-        <v>-0.01626578723294145</v>
+        <v>0.0101456469804814</v>
       </c>
       <c r="D88">
-        <v>0.01322569747330895</v>
+        <v>-0.0170463016784304</v>
       </c>
       <c r="E88">
-        <v>0.01640943012530786</v>
+        <v>0.01089809299365603</v>
       </c>
       <c r="F88">
-        <v>-7.813321606936233e-05</v>
+        <v>0.01652869923023307</v>
       </c>
       <c r="G88">
-        <v>-0.05250184240146556</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.005211432707181923</v>
+      </c>
+      <c r="H88">
+        <v>0.01767536515836753</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1129719359181446</v>
+        <v>-0.237508096991211</v>
       </c>
       <c r="C89">
-        <v>-0.130515291526427</v>
+        <v>0.01995040428677865</v>
       </c>
       <c r="D89">
-        <v>0.1792030414161775</v>
+        <v>0.3654862552976865</v>
       </c>
       <c r="E89">
-        <v>-0.2490998993550214</v>
+        <v>-0.02365648942622352</v>
       </c>
       <c r="F89">
-        <v>-0.08853222131140735</v>
+        <v>-0.02663722907017844</v>
       </c>
       <c r="G89">
-        <v>0.02337912628770787</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.0003385527975940476</v>
+      </c>
+      <c r="H89">
+        <v>0.01359680857803384</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09587108351861501</v>
+        <v>-0.1890234918913749</v>
       </c>
       <c r="C90">
-        <v>-0.1788895712709413</v>
+        <v>0.01931660472966629</v>
       </c>
       <c r="D90">
-        <v>0.1889387641542893</v>
+        <v>0.3252592664739324</v>
       </c>
       <c r="E90">
-        <v>-0.2609624828896053</v>
+        <v>-0.01668318238880567</v>
       </c>
       <c r="F90">
-        <v>-0.02764188011470044</v>
+        <v>-0.05575145682986608</v>
       </c>
       <c r="G90">
-        <v>-0.008291477652364069</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.009167033312644901</v>
+      </c>
+      <c r="H90">
+        <v>-0.05011899800740419</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3070277919672617</v>
+        <v>-0.2390569450756077</v>
       </c>
       <c r="C91">
-        <v>0.1254982997787318</v>
+        <v>-0.09884254501211848</v>
       </c>
       <c r="D91">
-        <v>0.09037457254508934</v>
+        <v>-0.1307445370816485</v>
       </c>
       <c r="E91">
-        <v>0.1219023681519763</v>
+        <v>-0.01367858516018219</v>
       </c>
       <c r="F91">
-        <v>0.2121762650115164</v>
+        <v>0.0765044474440775</v>
       </c>
       <c r="G91">
-        <v>0.03284993916959701</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1623986475884781</v>
+      </c>
+      <c r="H91">
+        <v>-0.1652555266571716</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1756249843456835</v>
+        <v>-0.2420558425293706</v>
       </c>
       <c r="C92">
-        <v>-0.1369257450423026</v>
+        <v>-0.04891365141693196</v>
       </c>
       <c r="D92">
-        <v>0.336395678167889</v>
+        <v>0.2618923545497621</v>
       </c>
       <c r="E92">
-        <v>-0.2413501423237822</v>
+        <v>-0.001766508572811812</v>
       </c>
       <c r="F92">
-        <v>0.1840421808809752</v>
+        <v>0.002815361022137435</v>
       </c>
       <c r="G92">
-        <v>-0.5317962250504912</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.004170301024486396</v>
+      </c>
+      <c r="H92">
+        <v>-0.1214369410415043</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0963290133406124</v>
+        <v>-0.2135011736368929</v>
       </c>
       <c r="C93">
-        <v>-0.1679389971455691</v>
+        <v>0.01044826193235577</v>
       </c>
       <c r="D93">
-        <v>0.2214596162035555</v>
+        <v>0.3410794627829742</v>
       </c>
       <c r="E93">
-        <v>-0.3662127923083416</v>
+        <v>-0.03766027450045054</v>
       </c>
       <c r="F93">
-        <v>0.01327719029525193</v>
+        <v>-0.05912293334039119</v>
       </c>
       <c r="G93">
-        <v>0.07066569417921686</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.001132220492845201</v>
+      </c>
+      <c r="H93">
+        <v>0.01249767208814757</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3031199567971581</v>
+        <v>-0.2766550401686123</v>
       </c>
       <c r="C94">
-        <v>0.1524559936628155</v>
+        <v>-0.09187213627385242</v>
       </c>
       <c r="D94">
-        <v>0.1827322694072349</v>
+        <v>-0.1281510342951422</v>
       </c>
       <c r="E94">
-        <v>0.1441367033556309</v>
+        <v>-0.04765260744144485</v>
       </c>
       <c r="F94">
-        <v>0.1652176819532802</v>
+        <v>0.153437145047411</v>
       </c>
       <c r="G94">
-        <v>0.03956077456108694</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2306649915363217</v>
+      </c>
+      <c r="H94">
+        <v>-0.2885039575323425</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.04858499199399508</v>
+        <v>-0.05919973606395337</v>
       </c>
       <c r="C95">
-        <v>0.04978504628815366</v>
+        <v>-0.03540436638617814</v>
       </c>
       <c r="D95">
-        <v>-0.04907602838577055</v>
+        <v>-0.0833720973478622</v>
       </c>
       <c r="E95">
-        <v>0.05752851746895616</v>
+        <v>-0.07694282496323999</v>
       </c>
       <c r="F95">
-        <v>-0.07412121264295704</v>
+        <v>0.0005370920598091803</v>
       </c>
       <c r="G95">
-        <v>-0.2132923799545851</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.06151985216960601</v>
+      </c>
+      <c r="H95">
+        <v>0.05589079161076499</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1696090212048574</v>
+        <v>-0.1851136248538879</v>
       </c>
       <c r="C98">
-        <v>0.06139904161446381</v>
+        <v>-0.05885425308397156</v>
       </c>
       <c r="D98">
-        <v>-0.03092552234920405</v>
+        <v>-0.02953011471895379</v>
       </c>
       <c r="E98">
-        <v>-0.1362131323685211</v>
+        <v>-0.04821807505540356</v>
       </c>
       <c r="F98">
-        <v>-0.1111845818686963</v>
+        <v>0.01698167716338532</v>
       </c>
       <c r="G98">
-        <v>0.3358030056717829</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.06966301651498658</v>
+      </c>
+      <c r="H98">
+        <v>0.341084266455253</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.004194031203856599</v>
+        <v>-0.01755738822450544</v>
       </c>
       <c r="C101">
-        <v>0.01357042492228705</v>
+        <v>-0.0005798807036008028</v>
       </c>
       <c r="D101">
-        <v>-0.0105974224525943</v>
+        <v>-0.01293867096547442</v>
       </c>
       <c r="E101">
-        <v>0.06363234669762984</v>
+        <v>0.007445268008739308</v>
       </c>
       <c r="F101">
-        <v>-0.1752234017817118</v>
+        <v>0.02756441470703898</v>
       </c>
       <c r="G101">
-        <v>-0.1040893761493335</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1055826492812729</v>
+      </c>
+      <c r="H101">
+        <v>-0.02276788038873995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1175195005286224</v>
+        <v>-0.1086931092511979</v>
       </c>
       <c r="C102">
-        <v>0.05466145852780862</v>
+        <v>-0.03472230698955286</v>
       </c>
       <c r="D102">
-        <v>0.03082255020238156</v>
+        <v>-0.07498559037086884</v>
       </c>
       <c r="E102">
-        <v>0.0784468812474218</v>
+        <v>-0.0009034006637495179</v>
       </c>
       <c r="F102">
-        <v>0.07812693537134313</v>
+        <v>0.04169805488633455</v>
       </c>
       <c r="G102">
-        <v>0.001129482284423137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.08119294096289889</v>
+      </c>
+      <c r="H102">
+        <v>-0.0632487553868344</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.0369891510501598</v>
+        <v>-0.0164327815975364</v>
       </c>
       <c r="C103">
-        <v>0.0001774634787427505</v>
+        <v>-0.006289163724008541</v>
       </c>
       <c r="D103">
-        <v>0.01222335434490322</v>
+        <v>-0.0140820883954265</v>
       </c>
       <c r="E103">
-        <v>0.04224762580185321</v>
+        <v>0.009300178139720592</v>
       </c>
       <c r="F103">
-        <v>-0.0008844902066250541</v>
+        <v>0.007571669079944492</v>
       </c>
       <c r="G103">
-        <v>-0.005821786290554687</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.0005118491593534883</v>
+      </c>
+      <c r="H103">
+        <v>-0.01204959828595099</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2022334988280312</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9553269078056249</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.1294416653953886</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02497180123294668</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1306646174908518</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.02928619255617197</v>
+      </c>
+      <c r="H104">
+        <v>-0.04907882281546137</v>
       </c>
     </row>
   </sheetData>
